--- a/outputs-r202/g__RUG159.xlsx
+++ b/outputs-r202/g__RUG159.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -477,6 +482,11 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>s__RUG159 sp900316145</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>s__RUG159 sp900316145</t>
         </is>
